--- a/biology/Botanique/Orchis_des_marais/Orchis_des_marais.xlsx
+++ b/biology/Botanique/Orchis_des_marais/Orchis_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis palustris
 L'orchis des marais (Anacamptis palustris), synonyme ancien: Orchis palustris Jacq., est une espèce d'orchidée terrestre européenne.
@@ -512,13 +524,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mesurant de 20 à 60 cm, à feuilles étroites et réparties le long de la tige ; les fleurs nombreuses, sont de couleur rose à pourpre pâle. La partie centrale du labelle est plus pâle et ponctuée de petites taches pourpres.
 Elle est très rare en Île-de-France et est protégée.
-Caractéristiques
-Organes reproducteurs
-La floraison a lieu d'avril à juin sur le littoral méditerranéen[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orchis_des_marais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_des_marais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
+La floraison a lieu d'avril à juin sur le littoral méditerranéen.
 Couleur dominante des fleurs : rose
 Inflorescence : épi simple
 Sexualité : hermaphrodite
@@ -534,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Orchis_des_marais</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Orchis_des_marais</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Autres Anacamptis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis champagneuxii, orchis de Champagneux
 Anacamptis collina, orchis des collines
